--- a/data/Global_stock.xlsx
+++ b/data/Global_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/Battery_replacements/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F6CDB-678C-2D4E-8D10-A727DC664E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30513605-CA7D-1945-8D60-3D6CE7AFFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -445,809 +445,321 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1950</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>274497960.01099652</v>
+        <v>932675314.96758866</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1951</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>279649680.76354837</v>
+        <v>988217669.19703817</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1952</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>284717448.72137147</v>
+        <v>1051114167.835217</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1953</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>289776549.07336962</v>
+        <v>1120112022.8586421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1954</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>294888713.28220278</v>
+        <v>1193109472.4268351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1955</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>300102116.05907023</v>
+        <v>1267433802.216269</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1956</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>305450816.07867062</v>
+        <v>1340280588.6174691</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1957</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>310955298.50627911</v>
+        <v>1409185479.0802569</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1958</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>316624043.04134232</v>
+        <v>1472385190.0623989</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1959</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>322456078.8436926</v>
+        <v>1528956972.2613399</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1960</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>328448728.39327782</v>
+        <v>1578737706.076972</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1961</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>334605902.10246539</v>
+        <v>1622126488.501982</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>1962</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>340945264.61891878</v>
+        <v>1659849450.429198</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1963</v>
+        <v>2024</v>
       </c>
       <c r="B15">
-        <v>347501392.38485932</v>
+        <v>1692769476.5179501</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>1964</v>
+        <v>2025</v>
       </c>
       <c r="B16">
-        <v>354316948.22062302</v>
+        <v>1721739214.720592</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>1965</v>
+        <v>2026</v>
       </c>
       <c r="B17">
-        <v>361416908.35793161</v>
+        <v>1747513350.6042161</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1966</v>
+        <v>2027</v>
       </c>
       <c r="B18">
-        <v>368812743.57171911</v>
+        <v>1770730422.457432</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>1967</v>
+        <v>2028</v>
       </c>
       <c r="B19">
-        <v>376480049.69855338</v>
+        <v>1791926675.369808</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1968</v>
+        <v>2029</v>
       </c>
       <c r="B20">
-        <v>384361853.08135819</v>
+        <v>1811533032.6755531</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>1969</v>
+        <v>2030</v>
       </c>
       <c r="B21">
-        <v>392379194.40247053</v>
+        <v>1829885654.4491079</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>1970</v>
+        <v>2031</v>
       </c>
       <c r="B22">
-        <v>400469567.90017313</v>
+        <v>1847242606.093169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>1971</v>
+        <v>2032</v>
       </c>
       <c r="B23">
-        <v>408621336.85096067</v>
+        <v>1863795940.3147039</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>1972</v>
+        <v>2033</v>
       </c>
       <c r="B24">
-        <v>416834589.16155922</v>
+        <v>1879685981.953239</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>1973</v>
+        <v>2034</v>
       </c>
       <c r="B25">
-        <v>425073829.5148769</v>
+        <v>1895013336.6480119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>1974</v>
+        <v>2035</v>
       </c>
       <c r="B26">
-        <v>433300600.76906872</v>
+        <v>1909853344.421314</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>1975</v>
+        <v>2036</v>
       </c>
       <c r="B27">
-        <v>441492101.6947695</v>
+        <v>1924264912.951772</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>1976</v>
+        <v>2037</v>
       </c>
       <c r="B28">
-        <v>449629715.26733053</v>
+        <v>1938295331.237442</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1977</v>
+        <v>2038</v>
       </c>
       <c r="B29">
-        <v>457730047.93607253</v>
+        <v>1951980406.274559</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>1978</v>
+        <v>2039</v>
       </c>
       <c r="B30">
-        <v>465851205.30681401</v>
+        <v>1965348781.2169769</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>1979</v>
+        <v>2040</v>
       </c>
       <c r="B31">
-        <v>474075197.19825399</v>
+        <v>1978420990.1469941</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>1980</v>
+        <v>2041</v>
       </c>
       <c r="B32">
-        <v>482464990.60872948</v>
+        <v>1991210501.1364579</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>1981</v>
+        <v>2042</v>
       </c>
       <c r="B33">
-        <v>491017771.09448802</v>
+        <v>2003724892.843024</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>1982</v>
+        <v>2043</v>
       </c>
       <c r="B34">
-        <v>499723233.12749761</v>
+        <v>2015968453.4377019</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>1983</v>
+        <v>2044</v>
       </c>
       <c r="B35">
-        <v>508624817.66567391</v>
+        <v>2027942717.6126821</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>1984</v>
+        <v>2045</v>
       </c>
       <c r="B36">
-        <v>517773867.07263368</v>
+        <v>2039648573.2714751</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>1985</v>
+        <v>2046</v>
       </c>
       <c r="B37">
-        <v>527194032.09701699</v>
+        <v>2051087718.82921</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>1986</v>
+        <v>2047</v>
       </c>
       <c r="B38">
-        <v>536915915.91377652</v>
+        <v>2062262174.0504799</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>1987</v>
+        <v>2048</v>
       </c>
       <c r="B39">
-        <v>546895294.19115329</v>
+        <v>2073172614.620333</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>1988</v>
+        <v>2049</v>
       </c>
       <c r="B40">
-        <v>556988184.21963501</v>
+        <v>2083819670.1324661</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>1989</v>
+        <v>2050</v>
       </c>
       <c r="B41">
-        <v>566999637.74519694</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>1990</v>
-      </c>
-      <c r="B42">
-        <v>576790443.60255539</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>1991</v>
-      </c>
-      <c r="B43">
-        <v>586313474.84225297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>1992</v>
-      </c>
-      <c r="B44">
-        <v>595611998.67279172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>1993</v>
-      </c>
-      <c r="B45">
-        <v>604751760.97220385</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B46">
-        <v>613842114.74244714</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B47">
-        <v>622978869.44461358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B48">
-        <v>632210714.61946499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B49">
-        <v>641573016.0465486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B50">
-        <v>651148069.64462817</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B51">
-        <v>661041282.34564757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B52">
-        <v>671393020.17783773</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B53">
-        <v>682383625.8558712</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B54">
-        <v>694259992.30767417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B55">
-        <v>707358473.41743135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B56">
-        <v>722117960.06347454</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B57">
-        <v>739087303.24723518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B58">
-        <v>758940527.37771392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B59">
-        <v>782484026.07496047</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B60">
-        <v>810651967.21208012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B61">
-        <v>844452029.66565394</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B62">
-        <v>884865329.75135326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B63">
-        <v>932675314.96758866</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B64">
-        <v>988217669.19703817</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B65">
-        <v>1051114167.835217</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B66">
-        <v>1120112022.8586421</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B67">
-        <v>1193109472.4268351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B68">
-        <v>1267433802.216269</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B69">
-        <v>1340280588.6174691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B70">
-        <v>1409185479.0802569</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B71">
-        <v>1472385190.0623989</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B72">
-        <v>1528956972.2613399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B73">
-        <v>1578737706.076972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B74">
-        <v>1622126488.501982</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B75">
-        <v>1659849450.429198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B76">
-        <v>1692769476.5179501</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>2025</v>
-      </c>
-      <c r="B77">
-        <v>1721739214.720592</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <v>2026</v>
-      </c>
-      <c r="B78">
-        <v>1747513350.6042161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>2027</v>
-      </c>
-      <c r="B79">
-        <v>1770730422.457432</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>2028</v>
-      </c>
-      <c r="B80">
-        <v>1791926675.369808</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
-        <v>2029</v>
-      </c>
-      <c r="B81">
-        <v>1811533032.6755531</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>2030</v>
-      </c>
-      <c r="B82">
-        <v>1829885654.4491079</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
-        <v>2031</v>
-      </c>
-      <c r="B83">
-        <v>1847242606.093169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
-        <v>2032</v>
-      </c>
-      <c r="B84">
-        <v>1863795940.3147039</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
-        <v>2033</v>
-      </c>
-      <c r="B85">
-        <v>1879685981.953239</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
-        <v>2034</v>
-      </c>
-      <c r="B86">
-        <v>1895013336.6480119</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
-        <v>2035</v>
-      </c>
-      <c r="B87">
-        <v>1909853344.421314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B88">
-        <v>1924264912.951772</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
-        <v>2037</v>
-      </c>
-      <c r="B89">
-        <v>1938295331.237442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
-        <v>2038</v>
-      </c>
-      <c r="B90">
-        <v>1951980406.274559</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
-        <v>2039</v>
-      </c>
-      <c r="B91">
-        <v>1965348781.2169769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
-        <v>2040</v>
-      </c>
-      <c r="B92">
-        <v>1978420990.1469941</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
-        <v>2041</v>
-      </c>
-      <c r="B93">
-        <v>1991210501.1364579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
-        <v>2042</v>
-      </c>
-      <c r="B94">
-        <v>2003724892.843024</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
-        <v>2043</v>
-      </c>
-      <c r="B95">
-        <v>2015968453.4377019</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
-        <v>2044</v>
-      </c>
-      <c r="B96">
-        <v>2027942717.6126821</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B97">
-        <v>2039648573.2714751</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>2046</v>
-      </c>
-      <c r="B98">
-        <v>2051087718.82921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>2047</v>
-      </c>
-      <c r="B99">
-        <v>2062262174.0504799</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B100">
-        <v>2073172614.620333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
-        <v>2049</v>
-      </c>
-      <c r="B101">
-        <v>2083819670.1324661</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B102">
         <v>2094203822.936518</v>
       </c>
     </row>

--- a/data/Global_stock.xlsx
+++ b/data/Global_stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/Battery_replacements/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/product_component_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30513605-CA7D-1945-8D60-3D6CE7AFFD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD2052-E92E-4C43-82A3-AFF96040D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="29240" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.13611083e+08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.48839839e+08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.86354802e+08</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.02571064e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.06633340e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.10757267e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.14874274e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.18916942e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.22825332e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.26552219e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.30065237e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.33347322e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.36394535e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.39213631e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.41817978e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.44223831e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.46449283e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.48514193e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50438046e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.52238850e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.53932752e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.55533606e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.57053054e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.58500723e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.59884859e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.61212685e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.62490545e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.63723762e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.64916908e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.66073672e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.67196934e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.68288861e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.69351136e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.70385021e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.71391554e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.72371693e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.73326291e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.74255976e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.75161279e+09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.76042637e+09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF616161"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,11 +210,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,340 +554,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
-      <c r="B2">
-        <v>932675314.96758866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
-      <c r="B3">
-        <v>988217669.19703817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
-      <c r="B4">
-        <v>1051114167.835217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
-      <c r="B5">
-        <v>1120112022.8586421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
-      <c r="B6">
-        <v>1193109472.4268351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7">
-        <v>1267433802.216269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
-      <c r="B8">
-        <v>1340280588.6174691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B9">
-        <v>1409185479.0802569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
-      <c r="B10">
-        <v>1472385190.0623989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
-      <c r="B11">
-        <v>1528956972.2613399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2021</v>
       </c>
-      <c r="B12">
-        <v>1578737706.076972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2022</v>
       </c>
-      <c r="B13">
-        <v>1622126488.501982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2023</v>
       </c>
-      <c r="B14">
-        <v>1659849450.429198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2024</v>
       </c>
-      <c r="B15">
-        <v>1692769476.5179501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
-      <c r="B16">
-        <v>1721739214.720592</v>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2026</v>
       </c>
-      <c r="B17">
-        <v>1747513350.6042161</v>
+      <c r="B17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2027</v>
       </c>
-      <c r="B18">
-        <v>1770730422.457432</v>
+      <c r="B18" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2028</v>
       </c>
-      <c r="B19">
-        <v>1791926675.369808</v>
+      <c r="B19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2029</v>
       </c>
-      <c r="B20">
-        <v>1811533032.6755531</v>
+      <c r="B20" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2030</v>
       </c>
-      <c r="B21">
-        <v>1829885654.4491079</v>
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2031</v>
       </c>
-      <c r="B22">
-        <v>1847242606.093169</v>
+      <c r="B22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2032</v>
       </c>
-      <c r="B23">
-        <v>1863795940.3147039</v>
+      <c r="B23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2033</v>
       </c>
-      <c r="B24">
-        <v>1879685981.953239</v>
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2034</v>
       </c>
-      <c r="B25">
-        <v>1895013336.6480119</v>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2035</v>
       </c>
-      <c r="B26">
-        <v>1909853344.421314</v>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2036</v>
       </c>
-      <c r="B27">
-        <v>1924264912.951772</v>
+      <c r="B27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2037</v>
       </c>
-      <c r="B28">
-        <v>1938295331.237442</v>
+      <c r="B28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2038</v>
       </c>
-      <c r="B29">
-        <v>1951980406.274559</v>
+      <c r="B29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2039</v>
       </c>
-      <c r="B30">
-        <v>1965348781.2169769</v>
+      <c r="B30" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2040</v>
       </c>
-      <c r="B31">
-        <v>1978420990.1469941</v>
+      <c r="B31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2041</v>
       </c>
-      <c r="B32">
-        <v>1991210501.1364579</v>
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2042</v>
       </c>
-      <c r="B33">
-        <v>2003724892.843024</v>
+      <c r="B33" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2043</v>
       </c>
-      <c r="B34">
-        <v>2015968453.4377019</v>
+      <c r="B34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2044</v>
       </c>
-      <c r="B35">
-        <v>2027942717.6126821</v>
+      <c r="B35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2045</v>
       </c>
-      <c r="B36">
-        <v>2039648573.2714751</v>
+      <c r="B36" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2046</v>
       </c>
-      <c r="B37">
-        <v>2051087718.82921</v>
+      <c r="B37" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2047</v>
       </c>
-      <c r="B38">
-        <v>2062262174.0504799</v>
+      <c r="B38" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2048</v>
       </c>
-      <c r="B39">
-        <v>2073172614.620333</v>
+      <c r="B39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2049</v>
       </c>
-      <c r="B40">
-        <v>2083819670.1324661</v>
+      <c r="B40" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2050</v>
       </c>
-      <c r="B41">
-        <v>2094203822.936518</v>
+      <c r="B41" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/Global_stock.xlsx
+++ b/data/Global_stock.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/product_component_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAD2052-E92E-4C43-82A3-AFF96040D703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDCA10-8053-B24E-91EE-EE3B3CE2E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="29240" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="29240" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stock" sheetId="1" r:id="rId1"/>
+    <sheet name="Population" sheetId="2" r:id="rId2"/>
+    <sheet name="Vehicles per capita" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="127">
   <si>
     <t>Year</t>
   </si>
@@ -28,131 +42,386 @@
     <t>Stock</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9.13611083e+08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.48839839e+08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.86354802e+08</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.02571064e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.06633340e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.10757267e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.14874274e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.18916942e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.22825332e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.26552219e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.30065237e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.33347322e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.36394535e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.39213631e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.41817978e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.44223831e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.46449283e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.48514193e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.50438046e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.52238850e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.53932752e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.55533606e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.57053054e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.58500723e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.59884859e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.61212685e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.62490545e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.63723762e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.64916908e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.66073672e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.67196934e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.68288861e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.69351136e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.70385021e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.71391554e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.72371693e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.73326291e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.74255976e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.75161279e+09</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.76042637e+09</t>
+    <t xml:space="preserve"> 7.04119417</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.12582796</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.21058204</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.29529076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.37979697</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.46402193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.5478589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.63109111</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.7134682 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.79479873</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.87496573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.95395258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.03180034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.10860526</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.18443745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.25927665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.33307832</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.4058633 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.47766072</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.54848737</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.61834945</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.68722787</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.75508351</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.82186271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.88752423</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.95204889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.01543762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.07769365</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.13882856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.19884738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.25774548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.31550815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.37211825</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.42755538</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.48180327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.53485467</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.58670775</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.63735732</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.68680015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.7350339</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.91361108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.94883984</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.9863548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.02571064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.0663334 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.10757267</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.14874274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.18916942</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.22825332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.26552219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.30065237</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.33347322</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.36394535</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.39213631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.41817978</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.44223831</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.46449283</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.48514193</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50438046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5223885 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.53932752</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.55533606</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.57053054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.58500723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.59884859</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.61212685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.62490545</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.63723762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.64916908</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.66073672</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.67196934</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.68288861</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.69351136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.70385021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.71391554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.72371693</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.73326291</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.74255976</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.75161279</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.76042637</t>
+  </si>
+  <si>
+    <t>12.97522922</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.31550305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.67926745</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.05990076</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.44935963</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.8388185 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.21945175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.58321608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.92348981</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.23546969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.51629241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.76491294</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.98181342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.16862846</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.32776118</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.4620414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.57445178</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.66792863</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.74523075</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.80886408</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.86104789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.90370973</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.93849873</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.96680909</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.98980856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.00846788</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.02358927</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.03583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.04573822</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.05374795</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.06022151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.06545151</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.06967552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.07308617</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.07583954</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.07806192</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.07985547</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.0813028 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.08247062</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.08341287</t>
+  </si>
+  <si>
+    <t>Vehicles per capita</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +440,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF616161"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -210,12 +485,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,343 +830,1407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2012</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2022</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2024</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2026</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2027</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2028</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2029</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2030</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2031</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2032</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2033</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2034</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2035</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2036</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2037</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2038</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2039</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2040</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2041</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2042</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2043</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2044</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2045</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2046</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2047</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2048</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2049</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2050</v>
       </c>
       <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715EC8B0-4725-8B41-ADAB-F8645490E174}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ABA225-22F5-FE46-ABCE-FB2EE3E0E89C}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2030</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2031</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2032</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2033</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2034</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2036</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2037</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2038</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2039</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2041</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2042</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2043</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2045</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2046</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2047</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2049</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
